--- a/biology/Médecine/Dextrorphane/Dextrorphane.xlsx
+++ b/biology/Médecine/Dextrorphane/Dextrorphane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dextrorphane (DXO) est un métabolite actif du dextrométhorphane. C'est un psychotrope, opiacé par sa structure chimique, mais il se différencie pharmacologiquement des opioïdes morphiniques. Il peut être utilisé comme antitussif ou comme hallucinogène dissociatif.
